--- a/data/GoodCSVs/GeorgePataki.xlsx
+++ b/data/GoodCSVs/GeorgePataki.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\campaign-contributions\data\GoodCSVs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>state</t>
   </si>
@@ -216,6 +211,18 @@
   </si>
   <si>
     <t>March_16</t>
+  </si>
+  <si>
+    <t>January_15</t>
+  </si>
+  <si>
+    <t>February_15</t>
+  </si>
+  <si>
+    <t>March_15</t>
+  </si>
+  <si>
+    <t>April_15</t>
   </si>
 </sst>
 </file>
@@ -534,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,73 +549,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
       <c r="H2" s="4">
@@ -623,33 +644,45 @@
       <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="4">
@@ -664,27 +697,39 @@
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="4">
@@ -705,33 +750,45 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="4">
@@ -746,55 +803,79 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>1000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="G6" s="5">
         <v>2700</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>350</v>
       </c>
-      <c r="F6" s="4">
+      <c r="J6" s="4">
         <v>9575</v>
       </c>
-      <c r="G6" s="4">
+      <c r="K6" s="4">
         <v>9100</v>
       </c>
-      <c r="H6" s="4">
+      <c r="L6" s="4">
         <v>5225</v>
       </c>
-      <c r="I6" s="4">
+      <c r="M6" s="4">
         <v>2500</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>30450</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -802,20 +883,20 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>500</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
@@ -828,55 +909,79 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>1000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="G8" s="5">
         <v>3450</v>
       </c>
-      <c r="D8" s="4">
+      <c r="H8" s="4">
         <v>1000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="I8" s="4">
         <v>2500</v>
       </c>
-      <c r="F8" s="4">
+      <c r="J8" s="4">
         <v>6400</v>
       </c>
-      <c r="G8" s="4">
+      <c r="K8" s="4">
         <v>250</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>14600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -886,16 +991,16 @@
       <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="4">
@@ -910,35 +1015,47 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>500</v>
       </c>
-      <c r="C10" s="5">
+      <c r="G10" s="5">
         <v>3700</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
@@ -951,55 +1068,79 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>2950</v>
       </c>
-      <c r="C11" s="5">
+      <c r="G11" s="5">
         <v>1100</v>
       </c>
-      <c r="D11" s="4">
+      <c r="H11" s="4">
         <v>13750</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1500</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
       </c>
       <c r="I11" s="4">
         <v>1000</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>21300</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1009,16 +1150,16 @@
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="4">
@@ -1033,14 +1174,26 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1050,16 +1203,16 @@
       <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="4">
@@ -1074,14 +1227,26 @@
       <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1091,16 +1256,16 @@
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="4">
@@ -1115,55 +1280,79 @@
       <c r="K14" s="4">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>2950</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
         <v>1250</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>4200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1173,16 +1362,16 @@
       <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="4">
@@ -1197,14 +1386,26 @@
       <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1214,38 +1415,50 @@
       <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
         <v>1000</v>
       </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1255,16 +1468,16 @@
       <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -1279,14 +1492,26 @@
       <c r="K18" s="4">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1296,16 +1521,16 @@
       <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -1320,14 +1545,26 @@
       <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1337,16 +1574,16 @@
       <c r="C20" s="5">
         <v>0</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <v>0</v>
       </c>
       <c r="H20" s="4">
@@ -1361,14 +1598,26 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1378,16 +1627,16 @@
       <c r="C21" s="5">
         <v>0</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="4">
@@ -1402,117 +1651,153 @@
       <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4">
-        <v>1000</v>
+      <c r="B22" s="5">
+        <v>0</v>
       </c>
       <c r="C22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>1000</v>
       </c>
-      <c r="G22" s="4">
-        <v>0</v>
+      <c r="G22" s="5">
+        <v>1000</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
         <v>1000</v>
       </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>5400</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <v>250</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>5650</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>500</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
@@ -1525,74 +1810,98 @@
       <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
         <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
         <v>5000</v>
       </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
         <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" s="4">
@@ -1607,74 +1916,98 @@
       <c r="K26" s="4">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>250</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
         <v>1000</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
       <c r="J27" s="4">
         <v>0</v>
       </c>
       <c r="K27" s="4">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>1250</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
         <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" s="4">
@@ -1689,33 +2022,45 @@
       <c r="K28" s="4">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
         <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" s="4">
@@ -1730,238 +2075,310 @@
       <c r="K29" s="4">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>1000</v>
       </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
       <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
         <v>3000</v>
       </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>500</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
         <v>1000</v>
       </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <v>3950</v>
       </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>5450</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>8200</v>
       </c>
-      <c r="C32">
+      <c r="G32">
         <v>35100</v>
       </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>3700</v>
       </c>
-      <c r="G32" s="4">
+      <c r="K32" s="4">
         <v>8100</v>
       </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>55100</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>500</v>
       </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
       <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
         <v>250</v>
       </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>16350</v>
       </c>
-      <c r="C34">
+      <c r="G34">
         <v>146166.46</v>
       </c>
-      <c r="D34" s="4">
+      <c r="H34" s="4">
         <v>16529.36</v>
       </c>
-      <c r="E34" s="4">
+      <c r="I34" s="4">
         <v>33600</v>
       </c>
-      <c r="F34" s="4">
+      <c r="J34" s="4">
         <v>41300</v>
       </c>
-      <c r="G34" s="4">
+      <c r="K34" s="4">
         <v>28450</v>
       </c>
-      <c r="H34" s="4">
+      <c r="L34" s="4">
         <v>3000</v>
       </c>
-      <c r="I34" s="4">
+      <c r="M34" s="4">
         <v>1200</v>
       </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>286595.82</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" s="4">
@@ -1976,33 +2393,45 @@
       <c r="K35" s="4">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" s="4">
@@ -2017,35 +2446,47 @@
       <c r="K36" s="4">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>1250</v>
       </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
       <c r="H37" s="4">
         <v>0</v>
       </c>
@@ -2058,33 +2499,45 @@
       <c r="K37" s="4">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>1250</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>250</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" s="4">
@@ -2099,120 +2552,156 @@
       <c r="K38" s="4">
         <v>0</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
         <v>5400</v>
       </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
       <c r="K39" s="4">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>5400</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
         <v>375</v>
       </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
         <v>250</v>
       </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>625</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
         <v>250</v>
       </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
       <c r="I41" s="4">
         <v>0</v>
       </c>
@@ -2222,33 +2711,45 @@
       <c r="K41" s="4">
         <v>0</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" s="4">
@@ -2263,33 +2764,45 @@
       <c r="K42" s="4">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" s="4">
@@ -2304,115 +2817,151 @@
       <c r="K43" s="4">
         <v>0</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
         <v>1000</v>
       </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>750</v>
       </c>
-      <c r="C45">
+      <c r="G45">
         <v>1000</v>
       </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
         <v>2000</v>
       </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
         <v>2250</v>
       </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>6000</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" s="4">
@@ -2427,115 +2976,151 @@
       <c r="K46" s="4">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
       </c>
       <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
         <v>250</v>
       </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>250</v>
       </c>
-      <c r="C48">
+      <c r="G48">
         <v>520.16</v>
       </c>
-      <c r="D48" s="4">
+      <c r="H48" s="4">
         <v>750</v>
       </c>
-      <c r="E48" s="4">
+      <c r="I48" s="4">
         <v>500</v>
       </c>
-      <c r="F48" s="4">
+      <c r="J48" s="4">
         <v>8150</v>
       </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
         <v>400</v>
       </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>10570.16</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" s="4">
@@ -2550,33 +3135,45 @@
       <c r="K49" s="4">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" s="4">
@@ -2591,33 +3188,45 @@
       <c r="K50" s="4">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" s="4">
@@ -2632,33 +3241,45 @@
       <c r="K51" s="4">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" s="4">
@@ -2673,10 +3294,22 @@
       <c r="K52" s="4">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>0</v>
       </c>
     </row>
